--- a/프로젝트일정.xlsx
+++ b/프로젝트일정.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>기능</t>
   </si>
@@ -106,10 +106,6 @@
     <t>장바구니 기능</t>
   </si>
   <si>
-    <t>09월 30일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니 상품 조회</t>
   </si>
   <si>
@@ -129,10 +125,6 @@
     <t>주문 기능</t>
   </si>
   <si>
-    <t>10월 3일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 주문</t>
   </si>
   <si>
@@ -149,10 +141,6 @@
     <t>마이페이지 기능</t>
   </si>
   <si>
-    <t>10월 5일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마이페이지 메인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,10 +170,6 @@
     <t>관리자 기능</t>
   </si>
   <si>
-    <t>10월 14일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 관리</t>
   </si>
   <si>
@@ -204,10 +188,6 @@
   </si>
   <si>
     <t>상품 정보 수정</t>
-  </si>
-  <si>
-    <t>10월 14일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주문 관리</t>
@@ -394,6 +374,30 @@
   </si>
   <si>
     <t xml:space="preserve">*****로직이 어떻게 돌아가고 대신 사용할 수 있는 게 뭐고 마이바티스를 사용했고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 1일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 4일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 7일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 10일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 10일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 10일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -769,98 +773,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,29 +815,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -898,11 +833,80 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,505 +1206,533 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="10" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="B14" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="10" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="10" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
+      <c r="E24" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32" t="s">
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E27" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32" t="s">
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="C30" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="D30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
+      <c r="E30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="E31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="35" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="E32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="37" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39" t="s">
+      <c r="E33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="37" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39" t="s">
+      <c r="E34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="37" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39" t="s">
+      <c r="E35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="37" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39" t="s">
+      <c r="E36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="37" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39" t="s">
+      <c r="E37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="37" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39" t="s">
+      <c r="E38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="37" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39" t="s">
+      <c r="E39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="37" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="37" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="39" t="s">
+      <c r="C42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="44" t="s">
+      <c r="C43" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="37" t="s">
+      <c r="D43" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="37"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="17" t="s">
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="37"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="37"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="37"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:A44"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
@@ -1711,39 +1743,11 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A30:A44"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트일정.xlsx
+++ b/프로젝트일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="10680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="화면설계" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
   <si>
     <t>기능</t>
   </si>
@@ -927,14 +927,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;dependency&gt;&lt;!-- sqlSessionFactory 만들때 없으면 에러남 --&gt;
-            &lt;groupId&gt;cglib&lt;/groupId&gt;
-            &lt;artifactId&gt;cglib-nodep&lt;/artifactId&gt;
-            &lt;version&gt;2.2&lt;/version&gt;
-        &lt;/dependency&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sqlSessionFactory(에러방지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1080,68 +1072,178 @@
     <t>T_SHOPPING_MEMBER</t>
   </si>
   <si>
+    <t>TEL2</t>
+  </si>
+  <si>
+    <t>TEL3</t>
+  </si>
+  <si>
+    <t>HP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSSTS_YN</t>
+  </si>
+  <si>
+    <t>EMAIL1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAILSTS_YN</t>
+  </si>
+  <si>
+    <t>ZIPCODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goods_status </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 배송상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_CONTENTS_ORDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비실에 맡겨주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clob</t>
+  </si>
+  <si>
+    <t>오라클 데이터 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;뭐가 뭐 참조하는지 표시&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SHOPPING_GOODS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SHOPPING_ORDER(T_SHOPPING_GOODS의 GOODS_ID 참조)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브라임에 있는 sql로 테이블 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_GOODS_DETAIL_IMAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE_ID</t>
+  </si>
+  <si>
+    <t>GOODS_ID</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>REG_ID</t>
+  </si>
+  <si>
+    <t>FILETYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDATE</t>
+  </si>
+  <si>
+    <t>무작정 따라가기 홍콩 마카오.jpg'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_date('18/10/16','RR/MM/DD')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NAME</t>
+  </si>
+  <si>
+    <t>MEMBER_GENDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TEL1</t>
-  </si>
-  <si>
-    <t>TEL2</t>
-  </si>
-  <si>
-    <t>TEL3</t>
-  </si>
-  <si>
-    <t>HP1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMSSTS_YN</t>
-  </si>
-  <si>
-    <t>EMAIL1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAILSTS_YN</t>
-  </si>
-  <si>
-    <t>ZIPCODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goods_status </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 배송상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_CONTENTS_ORDER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경비실에 맡겨주세요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>***</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clob</t>
-  </si>
-  <si>
-    <t>오라클 데이터 타입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;뭐가 뭐 참조하는지 표시&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROADADDRESS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIBUNADDRESS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMUJIADDRESS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_BIRTH_Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_BIRTH_M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_BIRTH_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_BIRTH_GN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOINDATE</t>
+  </si>
+  <si>
+    <t>DEL_YN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1149,116 +1251,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T_SHOPPING_ORDER(T_SHOPPING_GOODS의 GOODS_ID 참조)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브라임에 있는 sql로 테이블 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_GOODS_DETAIL_IMAGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMAGE_ID</t>
-  </si>
-  <si>
     <t>GOODS_ID</t>
-  </si>
-  <si>
-    <t>FILENAME</t>
-  </si>
-  <si>
-    <t>REG_ID</t>
-  </si>
-  <si>
-    <t>FILETYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_TITLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_WRITER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_PUBLISHER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_SALES_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_POINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_PUBLISHED_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_TOTAL_PAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_ISBN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_DELIVERY_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_DELIVERY_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_STATUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_INTRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_WRITER_INTRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_PUBLISHER_COMMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_RECOMMENDATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_CREDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+            &lt;groupId&gt;cglib&lt;/groupId&gt;
+            &lt;artifactId&gt;cglib-nodep&lt;/artifactId&gt;
+            &lt;version&gt;2.2&lt;/version&gt;
+        &lt;/dependency&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SHOPPING_ORDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SHOPPING_CART</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOODS_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL_YN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CREDATE</t>
-  </si>
-  <si>
-    <t>무작정 따라가기 홍콩 마카오.jpg'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_date('18/10/16','RR/MM/DD')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_PW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_NAME</t>
-  </si>
-  <si>
-    <t>MEMBER_GENDER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEL1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROADADDRESS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIBUNADDRESS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAMUJIADDRESS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_BIRTH_Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_BIRTH_M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_BIRTH_D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_BIRTH_GN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOINDATE</t>
-  </si>
-  <si>
-    <t>DEL_YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_SHOPPING_GOODS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART_GOODS_QTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SEQ_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1266,7 +1379,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GOODS_SORT</t>
+    <t>ORDERER_NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1274,15 +1387,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GOODS_WRITER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_PUBLISHER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_PRICE</t>
+    <t>ORDER_GOODS_QTY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1290,51 +1395,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GOODS_POINT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_PUBLISHED_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_TOTAL_PAGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_ISBN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_DELIVERY_PRICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_DELIVERY_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_STATUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_INTRO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_WRITER_INTRO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_PUBLISHER_COMMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_RECOMMENDATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOODS_CREDATE</t>
+    <t>GOODS_FILENAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_HP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_HP2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_HP3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_TEL1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_TEL2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVER_TEL3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIVERY_ADDRESS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIVERY_METHOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIVERY_MESSAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIFT_WRAPPING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_METHOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_COM_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_PAY_MONTH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_ORDERER_HP_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIVERY_STATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_ORDER_TIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDERER_HP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1806,7 +1939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,97 +2105,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2083,47 +2258,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2881,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2965,10 +3101,10 @@
       <c r="B1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="82"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="10" t="s">
         <v>193</v>
       </c>
@@ -3016,16 +3152,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="11" t="s">
         <v>178</v>
       </c>
@@ -3044,19 +3180,19 @@
       <c r="P2" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="70" t="s">
         <v>175</v>
       </c>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="1"/>
       <c r="F3" s="46"/>
       <c r="G3" s="33"/>
@@ -3069,28 +3205,28 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="71"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="76" t="s">
         <v>173</v>
       </c>
       <c r="H4" s="31"/>
@@ -3098,34 +3234,34 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="76" t="s">
         <v>172</v>
       </c>
       <c r="N4" s="31"/>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="76" t="s">
         <v>171</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="55" t="s">
         <v>169</v>
       </c>
       <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="57"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="34" t="s">
         <v>168</v>
       </c>
@@ -3133,14 +3269,14 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="57"/>
+      <c r="M5" s="71"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="57"/>
+      <c r="O5" s="71"/>
       <c r="P5" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="59"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3150,10 +3286,10 @@
       <c r="B6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
@@ -3193,21 +3329,21 @@
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="79" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="74" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="76" t="s">
         <v>97</v>
       </c>
       <c r="H7" s="31"/>
@@ -3218,39 +3354,39 @@
       <c r="K7" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="69" t="s">
         <v>151</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="58" t="s">
+      <c r="R7" s="55" t="s">
         <v>149</v>
       </c>
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="80"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="32"/>
       <c r="I8" s="42" t="s">
         <v>148</v>
@@ -3261,25 +3397,25 @@
       <c r="K8" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="60"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="80"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="56"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="32"/>
       <c r="I9" s="43" t="s">
         <v>146</v>
@@ -3290,25 +3426,25 @@
       <c r="K9" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
       <c r="P9" s="33"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="60"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="68" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="57"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="34"/>
       <c r="I10" s="41" t="s">
         <v>143</v>
@@ -3319,31 +3455,31 @@
       <c r="K10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="33"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="59"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="72" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="81" t="s">
         <v>97</v>
       </c>
       <c r="H11" s="39"/>
@@ -3357,34 +3493,34 @@
         <v>114</v>
       </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="81" t="s">
         <v>96</v>
       </c>
       <c r="N11" s="39"/>
-      <c r="O11" s="64" t="s">
+      <c r="O11" s="81" t="s">
         <v>127</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="58" t="s">
+      <c r="R11" s="55" t="s">
         <v>103</v>
       </c>
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="68" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="65"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="37"/>
       <c r="I12" s="38" t="s">
         <v>136</v>
@@ -3396,26 +3532,26 @@
         <v>114</v>
       </c>
       <c r="L12" s="37"/>
-      <c r="M12" s="65"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="37"/>
-      <c r="O12" s="65"/>
+      <c r="O12" s="82"/>
       <c r="P12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="60"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="66"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="35"/>
       <c r="I13" s="36" t="s">
         <v>133</v>
@@ -3427,30 +3563,30 @@
         <v>114</v>
       </c>
       <c r="L13" s="35"/>
-      <c r="M13" s="66"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="35"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="83"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="59"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="56"/>
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="61" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="72" t="s">
         <v>124</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="81" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="39"/>
@@ -3464,34 +3600,34 @@
         <v>114</v>
       </c>
       <c r="L14" s="39"/>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="85" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="39"/>
-      <c r="O14" s="64" t="s">
+      <c r="O14" s="81" t="s">
         <v>127</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="55" t="s">
+      <c r="Q14" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="58" t="s">
+      <c r="R14" s="55" t="s">
         <v>124</v>
       </c>
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="68" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="65"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
         <v>121</v>
@@ -3503,26 +3639,26 @@
         <v>114</v>
       </c>
       <c r="L15" s="37"/>
-      <c r="M15" s="65"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="37"/>
-      <c r="O15" s="65"/>
+      <c r="O15" s="82"/>
       <c r="P15" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="60"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="68" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="65"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38" t="s">
         <v>121</v>
@@ -3534,26 +3670,26 @@
         <v>114</v>
       </c>
       <c r="L16" s="37"/>
-      <c r="M16" s="65"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="37"/>
-      <c r="O16" s="65"/>
+      <c r="O16" s="82"/>
       <c r="P16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="60"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="68" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="82"/>
       <c r="H17" s="37"/>
       <c r="I17" s="38" t="s">
         <v>117</v>
@@ -3565,26 +3701,26 @@
         <v>114</v>
       </c>
       <c r="L17" s="37"/>
-      <c r="M17" s="65"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="37"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="82"/>
       <c r="P17" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="60"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="68" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="65"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37" t="s">
@@ -3594,24 +3730,24 @@
         <v>114</v>
       </c>
       <c r="L18" s="37"/>
-      <c r="M18" s="65"/>
+      <c r="M18" s="82"/>
       <c r="N18" s="37"/>
-      <c r="O18" s="65"/>
+      <c r="O18" s="82"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="60"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="68" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="66"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="35"/>
       <c r="I19" s="36" t="s">
         <v>113</v>
@@ -3623,32 +3759,32 @@
         <v>111</v>
       </c>
       <c r="L19" s="35"/>
-      <c r="M19" s="66"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="66"/>
+      <c r="O19" s="83"/>
       <c r="P19" s="33"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="59"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="56"/>
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="92" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="72" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="76" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="31"/>
@@ -3656,115 +3792,115 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="55" t="s">
+      <c r="M20" s="76" t="s">
         <v>96</v>
       </c>
       <c r="N20" s="31"/>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="76" t="s">
         <v>95</v>
       </c>
       <c r="P20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="58" t="s">
+      <c r="R20" s="55" t="s">
         <v>108</v>
       </c>
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="99"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="56"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="56"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="56"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="60"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="99"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="56"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="56"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="60"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="63"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="57"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="57"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="57"/>
+      <c r="O23" s="71"/>
       <c r="P23" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="59"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="56"/>
       <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
-      <c r="B24" s="101" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="92" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="72" t="s">
         <v>103</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="76" t="s">
         <v>97</v>
       </c>
       <c r="H24" s="31"/>
@@ -3772,88 +3908,88 @@
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="76" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="31"/>
-      <c r="O24" s="55" t="s">
+      <c r="O24" s="76" t="s">
         <v>95</v>
       </c>
       <c r="P24" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="55" t="s">
+      <c r="Q24" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="R24" s="58" t="s">
+      <c r="R24" s="55" t="s">
         <v>101</v>
       </c>
       <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="99"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
-      <c r="M25" s="56"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="56"/>
+      <c r="O25" s="70"/>
       <c r="P25" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="60"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="57"/>
       <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="100"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="63"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="57"/>
+      <c r="M26" s="71"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="57"/>
+      <c r="O26" s="71"/>
       <c r="P26" s="33"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="59"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="56"/>
       <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
-      <c r="B27" s="101" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="72" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="76" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="31"/>
@@ -3861,80 +3997,80 @@
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
-      <c r="M27" s="55" t="s">
+      <c r="M27" s="76" t="s">
         <v>96</v>
       </c>
       <c r="N27" s="31"/>
-      <c r="O27" s="55" t="s">
+      <c r="O27" s="76" t="s">
         <v>95</v>
       </c>
       <c r="P27" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="55" t="s">
+      <c r="Q27" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="R27" s="58" t="s">
+      <c r="R27" s="55" t="s">
         <v>93</v>
       </c>
       <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="99"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="70"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
-      <c r="M28" s="56"/>
+      <c r="M28" s="70"/>
       <c r="N28" s="32"/>
-      <c r="O28" s="56"/>
+      <c r="O28" s="70"/>
       <c r="P28" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="60"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="57"/>
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="99"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="56"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="56"/>
+      <c r="O29" s="70"/>
       <c r="P29" s="31"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="59"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="56"/>
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="77" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -3961,9 +4097,9 @@
       <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="7" t="s">
         <v>85</v>
       </c>
@@ -3992,9 +4128,9 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="7" t="s">
         <v>81</v>
       </c>
@@ -4019,9 +4155,9 @@
       <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
@@ -4046,9 +4182,9 @@
       <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="7" t="s">
         <v>76</v>
       </c>
@@ -4073,9 +4209,9 @@
       <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="92"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="7" t="s">
         <v>74</v>
       </c>
@@ -4100,9 +4236,9 @@
       <c r="S35" s="22"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="7" t="s">
         <v>71</v>
       </c>
@@ -4127,9 +4263,9 @@
       <c r="S36" s="22"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="92"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="7" t="s">
         <v>68</v>
       </c>
@@ -4154,9 +4290,9 @@
       <c r="S37" s="22"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="7" t="s">
         <v>65</v>
       </c>
@@ -4181,9 +4317,9 @@
       <c r="S38" s="22"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="92"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="7" t="s">
         <v>63</v>
       </c>
@@ -4208,21 +4344,21 @@
       <c r="S39" s="22"/>
     </row>
     <row r="40" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="92"/>
-      <c r="B40" s="103" t="s">
+      <c r="A40" s="86"/>
+      <c r="B40" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="89"/>
+      <c r="G40" s="103"/>
       <c r="H40" s="6" t="s">
         <v>58</v>
       </c>
@@ -4241,13 +4377,13 @@
       <c r="S40" s="22"/>
     </row>
     <row r="41" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="87"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="9"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="105"/>
       <c r="H41" s="23" t="s">
         <v>56</v>
       </c>
@@ -4266,7 +4402,7 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
@@ -4286,18 +4422,18 @@
       </c>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="93" t="s">
+      <c r="M42" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="95"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="89"/>
       <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
@@ -4326,7 +4462,7 @@
       <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
@@ -4364,6 +4500,11 @@
     <mergeCell ref="Q24:Q26"/>
     <mergeCell ref="Q27:Q29"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q14:Q19"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A30:A44"/>
     <mergeCell ref="M42:R42"/>
     <mergeCell ref="A20:A29"/>
@@ -4392,6 +4533,16 @@
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="O11:O13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="O14:O19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="O7:O10"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="L7:L10"/>
@@ -4401,8 +4552,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="E11:E13"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:D2"/>
@@ -4427,27 +4576,14 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="O14:O19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="O24:O26"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="R7:R10"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="R14:R19"/>
     <mergeCell ref="R24:R26"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q14:Q19"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4460,7 +4596,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4511,117 +4647,117 @@
     </row>
     <row r="9" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4632,22 +4768,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y64"/>
+  <dimension ref="A2:AB75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
@@ -4662,86 +4797,90 @@
     <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="E3" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="F3" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="L3" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q3" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="52" t="s">
+      <c r="R3" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="L3" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="O3" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="P3" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q3" s="52" t="s">
+      <c r="S3" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="T3" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="U3" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="V3" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="W3" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="X3" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="Y3" s="52" t="s">
         <v>273</v>
-      </c>
-      <c r="X3" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y3" s="52" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
@@ -4954,69 +5093,69 @@
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="E14" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="F14" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="G14" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="H14" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="I14" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="J14" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="K14" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="J14" s="52" t="s">
+      <c r="L14" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="52" t="s">
+      <c r="M14" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="L14" s="52" t="s">
+      <c r="N14" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="M14" s="52" t="s">
+      <c r="O14" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="N14" s="52" t="s">
+      <c r="P14" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="O14" s="52" t="s">
+      <c r="Q14" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="R14" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="Q14" s="52" t="s">
+      <c r="S14" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="R14" s="52" t="s">
+      <c r="T14" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U14" s="52" t="s">
         <v>293</v>
-      </c>
-      <c r="S14" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="T14" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="U14" s="52" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
@@ -5153,105 +5292,139 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" t="s">
         <v>242</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>243</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>245</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>246</v>
       </c>
-      <c r="E34" t="s">
+      <c r="B35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="I36" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="K36" s="52"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B38" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="N38" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="O38" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="P38" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q38" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="R38" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="S38" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="T38" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="U38" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="V38" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="W38" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z38" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA38" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB38" s="52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
@@ -5262,8 +5435,25 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
@@ -5274,8 +5464,25 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -5286,8 +5493,25 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -5298,8 +5522,25 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -5310,8 +5551,25 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
@@ -5322,8 +5580,25 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
       <c r="K44" s="53"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
@@ -5334,8 +5609,25 @@
       <c r="I45" s="53"/>
       <c r="J45" s="53"/>
       <c r="K45" s="53"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
@@ -5346,127 +5638,364 @@
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
       <c r="K46" s="53"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="53">
-        <v>346</v>
-      </c>
-      <c r="C55" s="53">
-        <v>394</v>
-      </c>
-      <c r="D55" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="G55" s="53" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="53"/>
       <c r="C57" s="53"/>
       <c r="D57" s="53"/>
       <c r="E57" s="53"/>
       <c r="F57" s="53"/>
       <c r="G57" s="53"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="53"/>
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="53"/>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="53"/>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
       <c r="F59" s="53"/>
       <c r="G59" s="53"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="53"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="53"/>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
       <c r="G61" s="53"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="53"/>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="106"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="53">
+        <v>346</v>
+      </c>
+      <c r="C66" s="53">
+        <v>394</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="G66" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/프로젝트일정.xlsx
+++ b/프로젝트일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="10680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="화면설계" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="432">
   <si>
     <t>기능</t>
   </si>
@@ -1468,6 +1468,316 @@
   </si>
   <si>
     <t>ORDERER_HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDATE) values (346</t>
+  </si>
+  <si>
+    <t>'main_image'</t>
+  </si>
+  <si>
+    <t>to_date('18/10/16'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (347</t>
+  </si>
+  <si>
+    <t>'무작정 따라가기 홍콩 마카오_상세.jpg'</t>
+  </si>
+  <si>
+    <t>'detail_image1'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (348</t>
+  </si>
+  <si>
+    <t>'detail2.jpg'</t>
+  </si>
+  <si>
+    <t>'detail_image2'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (349</t>
+  </si>
+  <si>
+    <t>'image2.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (350</t>
+  </si>
+  <si>
+    <t>'모두의 파이선상세이미지1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (351</t>
+  </si>
+  <si>
+    <t>'main_react.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (352</t>
+  </si>
+  <si>
+    <t>'react_detail1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (353</t>
+  </si>
+  <si>
+    <t>'헬로자바스크립트_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (354</t>
+  </si>
+  <si>
+    <t>'헬로자바스크립트_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (299</t>
+  </si>
+  <si>
+    <t>'포토샵 무작정 따라하기_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (300</t>
+  </si>
+  <si>
+    <t>'포토샵 무작정 따라하기_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (301</t>
+  </si>
+  <si>
+    <t>'차트분석 무작정 따라하기_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (302</t>
+  </si>
+  <si>
+    <t>'차트분석 무작정 따라하기_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (303</t>
+  </si>
+  <si>
+    <t>'짠테그 가계부_메인.jpg'</t>
+  </si>
+  <si>
+    <t>to_date('18/10/17'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (304</t>
+  </si>
+  <si>
+    <t>'짠테그 가계부_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (305</t>
+  </si>
+  <si>
+    <t>'케라시_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (306</t>
+  </si>
+  <si>
+    <t>'케라시_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (307</t>
+  </si>
+  <si>
+    <t>'컴퓨터 활용능력 2급 실기_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (308</t>
+  </si>
+  <si>
+    <t>'컴퓨터 활용능력 2급 실기_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (309</t>
+  </si>
+  <si>
+    <t>'시나공 워드프로세서 실기_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (310</t>
+  </si>
+  <si>
+    <t>'시나공 워드프로세서 실기_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (311</t>
+  </si>
+  <si>
+    <t>'엑셀실무_메인.pg.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (312</t>
+  </si>
+  <si>
+    <t>'엑셀실무_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (313</t>
+  </si>
+  <si>
+    <t>CREDATE) values (314</t>
+  </si>
+  <si>
+    <t>CREDATE) values (315</t>
+  </si>
+  <si>
+    <t>'부동상 상식사전_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (316</t>
+  </si>
+  <si>
+    <t>'부동상 상식사전_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (317</t>
+  </si>
+  <si>
+    <t>'기적적 계산법_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (339</t>
+  </si>
+  <si>
+    <t>'good1_detail_image3.jpg'</t>
+  </si>
+  <si>
+    <t>'uploadFile'</t>
+  </si>
+  <si>
+    <t>to_date('18/10/21'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (319</t>
+  </si>
+  <si>
+    <t>'image1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (320</t>
+  </si>
+  <si>
+    <t>CREDATE) values (321</t>
+  </si>
+  <si>
+    <t>CREDATE) values (322</t>
+  </si>
+  <si>
+    <t>'detail3.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (323</t>
+  </si>
+  <si>
+    <t>'여행 일본어_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (324</t>
+  </si>
+  <si>
+    <t>'여행 일본어_상세.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (325</t>
+  </si>
+  <si>
+    <t>'가장 빨리 만나는 자바_메인.jpg'</t>
+  </si>
+  <si>
+    <t>to_date('18/10/20'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (326</t>
+  </si>
+  <si>
+    <t>'가장 빨리 만나는 자바_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (327</t>
+  </si>
+  <si>
+    <t>'Java EE 디자이 패턴_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (328</t>
+  </si>
+  <si>
+    <t>'Java EE 디자이 패턴_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (330</t>
+  </si>
+  <si>
+    <t>'자바 리팩토링_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (331</t>
+  </si>
+  <si>
+    <t>'자바 리팩토링_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (334</t>
+  </si>
+  <si>
+    <t>'유지보수자바_메인.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (341</t>
+  </si>
+  <si>
+    <t>'유지보수자바_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (337</t>
+  </si>
+  <si>
+    <t>'기적적 계산법_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (338</t>
+  </si>
+  <si>
+    <t>'good1_detail_image2.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (342</t>
+  </si>
+  <si>
+    <t>'모두의 딥러닝_메인.jpg'</t>
+  </si>
+  <si>
+    <t>to_date('18/10/23'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (343</t>
+  </si>
+  <si>
+    <t>'모두의 딥러닝_상세.jpg'</t>
+  </si>
+  <si>
+    <t>CREDATE) values (345</t>
+  </si>
+  <si>
+    <t>'마인_메인.jpg'</t>
+  </si>
+  <si>
+    <t>'마인_상세1.jpg'</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1939,7 +2249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2105,6 +2415,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,9 +2582,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3017,7 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -3101,10 +3423,10 @@
       <c r="B1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="10" t="s">
         <v>193</v>
       </c>
@@ -3152,16 +3474,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="11" t="s">
         <v>178</v>
       </c>
@@ -3180,19 +3502,19 @@
       <c r="P2" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="75" t="s">
         <v>175</v>
       </c>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="61" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="1"/>
       <c r="F3" s="46"/>
       <c r="G3" s="33"/>
@@ -3205,28 +3527,28 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
-      <c r="Q3" s="71"/>
+      <c r="Q3" s="76"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="81" t="s">
         <v>173</v>
       </c>
       <c r="H4" s="31"/>
@@ -3234,34 +3556,34 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="81" t="s">
         <v>172</v>
       </c>
       <c r="N4" s="31"/>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="81" t="s">
         <v>171</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="60" t="s">
         <v>169</v>
       </c>
       <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="71"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="34" t="s">
         <v>168</v>
       </c>
@@ -3269,14 +3591,14 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="71"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="71"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="56"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="61"/>
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3286,10 +3608,10 @@
       <c r="B6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
@@ -3329,21 +3651,21 @@
       <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="79" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="81" t="s">
         <v>97</v>
       </c>
       <c r="H7" s="31"/>
@@ -3354,39 +3676,39 @@
       <c r="K7" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="69" t="s">
+      <c r="O7" s="74" t="s">
         <v>151</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q7" s="76" t="s">
+      <c r="Q7" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="55" t="s">
+      <c r="R7" s="60" t="s">
         <v>149</v>
       </c>
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="61" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="32"/>
       <c r="I8" s="42" t="s">
         <v>148</v>
@@ -3397,25 +3719,25 @@
       <c r="K8" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="57"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="62"/>
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="70"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="32"/>
       <c r="I9" s="43" t="s">
         <v>146</v>
@@ -3426,25 +3748,25 @@
       <c r="K9" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
       <c r="P9" s="33"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="57"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="62"/>
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="61" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="34"/>
       <c r="I10" s="41" t="s">
         <v>143</v>
@@ -3455,31 +3777,31 @@
       <c r="K10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="33"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="56"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="61"/>
       <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="77" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="86" t="s">
         <v>97</v>
       </c>
       <c r="H11" s="39"/>
@@ -3493,34 +3815,34 @@
         <v>114</v>
       </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="86" t="s">
         <v>96</v>
       </c>
       <c r="N11" s="39"/>
-      <c r="O11" s="81" t="s">
+      <c r="O11" s="86" t="s">
         <v>127</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="R11" s="60" t="s">
         <v>103</v>
       </c>
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="84"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="82"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="37"/>
       <c r="I12" s="38" t="s">
         <v>136</v>
@@ -3532,26 +3854,26 @@
         <v>114</v>
       </c>
       <c r="L12" s="37"/>
-      <c r="M12" s="82"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="37"/>
-      <c r="O12" s="82"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="57"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="61" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="35"/>
       <c r="I13" s="36" t="s">
         <v>133</v>
@@ -3563,30 +3885,30 @@
         <v>114</v>
       </c>
       <c r="L13" s="35"/>
-      <c r="M13" s="83"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="35"/>
-      <c r="O13" s="83"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="56"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="61"/>
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="72" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="77" t="s">
         <v>124</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="86" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="39"/>
@@ -3600,34 +3922,34 @@
         <v>114</v>
       </c>
       <c r="L14" s="39"/>
-      <c r="M14" s="85" t="s">
+      <c r="M14" s="90" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="39"/>
-      <c r="O14" s="81" t="s">
+      <c r="O14" s="86" t="s">
         <v>127</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="76" t="s">
+      <c r="Q14" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="60" t="s">
         <v>124</v>
       </c>
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="61" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="84"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="82"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
         <v>121</v>
@@ -3639,26 +3961,26 @@
         <v>114</v>
       </c>
       <c r="L15" s="37"/>
-      <c r="M15" s="82"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="37"/>
-      <c r="O15" s="82"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="57"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="61" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="84"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="82"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38" t="s">
         <v>121</v>
@@ -3670,26 +3992,26 @@
         <v>114</v>
       </c>
       <c r="L16" s="37"/>
-      <c r="M16" s="82"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="37"/>
-      <c r="O16" s="82"/>
+      <c r="O16" s="87"/>
       <c r="P16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="62"/>
       <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="61" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="84"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="82"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="37"/>
       <c r="I17" s="38" t="s">
         <v>117</v>
@@ -3701,26 +4023,26 @@
         <v>114</v>
       </c>
       <c r="L17" s="37"/>
-      <c r="M17" s="82"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="37"/>
-      <c r="O17" s="82"/>
+      <c r="O17" s="87"/>
       <c r="P17" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="57"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="62"/>
       <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="84"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="82"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37" t="s">
@@ -3730,24 +4052,24 @@
         <v>114</v>
       </c>
       <c r="L18" s="37"/>
-      <c r="M18" s="82"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="37"/>
-      <c r="O18" s="82"/>
+      <c r="O18" s="87"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="57"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="61" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="83"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="35"/>
       <c r="I19" s="36" t="s">
         <v>113</v>
@@ -3759,32 +4081,32 @@
         <v>111</v>
       </c>
       <c r="L19" s="35"/>
-      <c r="M19" s="83"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="83"/>
+      <c r="O19" s="88"/>
       <c r="P19" s="33"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="56"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="97" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="77" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="81" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="31"/>
@@ -3792,115 +4114,115 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="76" t="s">
+      <c r="M20" s="81" t="s">
         <v>96</v>
       </c>
       <c r="N20" s="31"/>
-      <c r="O20" s="76" t="s">
+      <c r="O20" s="81" t="s">
         <v>95</v>
       </c>
       <c r="P20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="55" t="s">
+      <c r="R20" s="60" t="s">
         <v>108</v>
       </c>
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="84"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="70"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="70"/>
+      <c r="O21" s="75"/>
       <c r="P21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="57"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="62"/>
       <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="84"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="70"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="70"/>
+      <c r="M22" s="75"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="70"/>
+      <c r="O22" s="75"/>
       <c r="P22" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="57"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="62"/>
       <c r="S22" s="22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="94"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="73"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="71"/>
+      <c r="G23" s="76"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="71"/>
+      <c r="M23" s="76"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="71"/>
+      <c r="O23" s="76"/>
       <c r="P23" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="56"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="61"/>
       <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
-      <c r="B24" s="95" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="97" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="77" t="s">
         <v>103</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="81" t="s">
         <v>97</v>
       </c>
       <c r="H24" s="31"/>
@@ -3908,88 +4230,88 @@
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
-      <c r="M24" s="76" t="s">
+      <c r="M24" s="81" t="s">
         <v>96</v>
       </c>
       <c r="N24" s="31"/>
-      <c r="O24" s="76" t="s">
+      <c r="O24" s="81" t="s">
         <v>95</v>
       </c>
       <c r="P24" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="76" t="s">
+      <c r="Q24" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="R24" s="55" t="s">
+      <c r="R24" s="60" t="s">
         <v>101</v>
       </c>
       <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="93"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="84"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="70"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
-      <c r="M25" s="70"/>
+      <c r="M25" s="75"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="70"/>
+      <c r="O25" s="75"/>
       <c r="P25" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="57"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="62"/>
       <c r="S25" s="22"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="91"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="94"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="71"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="71"/>
+      <c r="O26" s="76"/>
       <c r="P26" s="33"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="56"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="61"/>
       <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
-      <c r="B27" s="95" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="97" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="77" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="81" t="s">
         <v>97</v>
       </c>
       <c r="H27" s="31"/>
@@ -3997,80 +4319,80 @@
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
-      <c r="M27" s="76" t="s">
+      <c r="M27" s="81" t="s">
         <v>96</v>
       </c>
       <c r="N27" s="31"/>
-      <c r="O27" s="76" t="s">
+      <c r="O27" s="81" t="s">
         <v>95</v>
       </c>
       <c r="P27" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="76" t="s">
+      <c r="Q27" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="R27" s="55" t="s">
+      <c r="R27" s="60" t="s">
         <v>93</v>
       </c>
       <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="93"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="84"/>
+      <c r="E28" s="89"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="70"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
-      <c r="M28" s="70"/>
+      <c r="M28" s="75"/>
       <c r="N28" s="32"/>
-      <c r="O28" s="70"/>
+      <c r="O28" s="75"/>
       <c r="P28" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="57"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="62"/>
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="93"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="84"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="70"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="70"/>
+      <c r="O29" s="75"/>
       <c r="P29" s="31"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="56"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="82" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -4097,9 +4419,9 @@
       <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="7" t="s">
         <v>85</v>
       </c>
@@ -4128,9 +4450,9 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="7" t="s">
         <v>81</v>
       </c>
@@ -4155,9 +4477,9 @@
       <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
@@ -4182,9 +4504,9 @@
       <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="7" t="s">
         <v>76</v>
       </c>
@@ -4209,9 +4531,9 @@
       <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="7" t="s">
         <v>74</v>
       </c>
@@ -4236,9 +4558,9 @@
       <c r="S35" s="22"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="7" t="s">
         <v>71</v>
       </c>
@@ -4263,9 +4585,9 @@
       <c r="S36" s="22"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="7" t="s">
         <v>68</v>
       </c>
@@ -4290,9 +4612,9 @@
       <c r="S37" s="22"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="7" t="s">
         <v>65</v>
       </c>
@@ -4317,9 +4639,9 @@
       <c r="S38" s="22"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="7" t="s">
         <v>63</v>
       </c>
@@ -4344,21 +4666,21 @@
       <c r="S39" s="22"/>
     </row>
     <row r="40" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
-      <c r="B40" s="97" t="s">
+      <c r="A40" s="91"/>
+      <c r="B40" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="105" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="103"/>
+      <c r="G40" s="108"/>
       <c r="H40" s="6" t="s">
         <v>58</v>
       </c>
@@ -4377,13 +4699,13 @@
       <c r="S40" s="22"/>
     </row>
     <row r="41" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="101"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="9"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="105"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="23" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +4724,7 @@
       <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
@@ -4422,18 +4744,18 @@
       </c>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="87" t="s">
+      <c r="M42" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="89"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="94"/>
       <c r="S42" s="22"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
@@ -4462,7 +4784,7 @@
       <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="86"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
@@ -4768,18 +5090,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB75"/>
+  <dimension ref="A2:AB114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21" bestFit="1" customWidth="1"/>
@@ -4805,12 +5128,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="56" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="57" t="s">
         <v>259</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -4884,7 +5207,7 @@
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="53"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -4910,7 +5233,7 @@
       <c r="Y4" s="53"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -4936,7 +5259,7 @@
       <c r="Y5" s="53"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -4962,7 +5285,7 @@
       <c r="Y6" s="53"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -4988,7 +5311,7 @@
       <c r="Y7" s="53"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="53"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -5014,7 +5337,7 @@
       <c r="Y8" s="53"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -5040,7 +5363,7 @@
       <c r="Y9" s="53"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -5066,7 +5389,7 @@
       <c r="Y10" s="53"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="53"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -5092,12 +5415,12 @@
       <c r="Y11" s="53"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="56" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="57" t="s">
         <v>275</v>
       </c>
       <c r="C14" s="52" t="s">
@@ -5159,7 +5482,7 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -5181,7 +5504,7 @@
       <c r="U15" s="53"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" s="53"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -5203,7 +5526,7 @@
       <c r="U16" s="53"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -5225,7 +5548,7 @@
       <c r="U17" s="53"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="53"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -5247,7 +5570,7 @@
       <c r="U18" s="53"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="53"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -5269,7 +5592,7 @@
       <c r="U19" s="53"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -5291,7 +5614,7 @@
       <c r="U20" s="53"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="56" t="s">
         <v>236</v>
       </c>
       <c r="C27" t="s">
@@ -5299,7 +5622,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="56" t="s">
         <v>238</v>
       </c>
       <c r="D29" t="s">
@@ -5310,7 +5633,7 @@
       <c r="A32" t="s">
         <v>240</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="56" t="s">
         <v>241</v>
       </c>
       <c r="C32" t="s">
@@ -5318,7 +5641,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="56" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
@@ -5332,17 +5655,17 @@
       <c r="A35" t="s">
         <v>246</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="56" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="B37" s="56" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="57" t="s">
         <v>303</v>
       </c>
       <c r="C38" s="52" t="s">
@@ -5425,7 +5748,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B39" s="53"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
@@ -5454,7 +5777,7 @@
       <c r="AB39" s="53"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B40" s="53"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
@@ -5483,7 +5806,7 @@
       <c r="AB40" s="53"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B41" s="53"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
@@ -5512,7 +5835,7 @@
       <c r="AB41" s="53"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B42" s="53"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
@@ -5541,7 +5864,7 @@
       <c r="AB42" s="53"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B43" s="53"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -5570,7 +5893,7 @@
       <c r="AB43" s="53"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B44" s="53"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
@@ -5599,7 +5922,7 @@
       <c r="AB44" s="53"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B45" s="53"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
@@ -5628,7 +5951,7 @@
       <c r="AB45" s="53"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B46" s="53"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
@@ -5657,7 +5980,7 @@
       <c r="AB46" s="53"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B47" s="53"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
       <c r="E47" s="53"/>
@@ -5686,7 +6009,7 @@
       <c r="AB47" s="53"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B48" s="53"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="53"/>
@@ -5715,12 +6038,12 @@
       <c r="AB48" s="53"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="B51" s="56" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="57" t="s">
         <v>297</v>
       </c>
       <c r="C52" s="52" t="s">
@@ -5738,150 +6061,150 @@
       <c r="G52" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="53"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="53"/>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="53"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="53"/>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
       <c r="G54" s="53"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
       <c r="G55" s="53"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="53"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="53"/>
       <c r="D57" s="53"/>
       <c r="E57" s="53"/>
       <c r="F57" s="53"/>
       <c r="G57" s="53"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="53"/>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="53"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
       <c r="F59" s="53"/>
       <c r="G59" s="53"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="53"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="53"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
       <c r="G61" s="53"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="53"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="106"/>
-      <c r="K62" s="106"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="106"/>
-      <c r="K63" s="106"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+      <c r="B64" s="56" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="57" t="s">
         <v>249</v>
       </c>
       <c r="C65" s="52" t="s">
@@ -5901,7 +6224,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="53">
+      <c r="B66" s="58">
         <v>346</v>
       </c>
       <c r="C66" s="53">
@@ -5921,76 +6244,964 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67">
+        <v>394</v>
+      </c>
+      <c r="D67" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" t="s">
+        <v>430</v>
+      </c>
+      <c r="F67" t="s">
+        <v>334</v>
+      </c>
+      <c r="G67" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
+      <c r="B68" t="s">
+        <v>335</v>
+      </c>
+      <c r="C68">
+        <v>394</v>
+      </c>
+      <c r="D68" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" t="s">
+        <v>430</v>
+      </c>
+      <c r="F68" t="s">
+        <v>337</v>
+      </c>
+      <c r="G68" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69">
+        <v>395</v>
+      </c>
+      <c r="D69" t="s">
+        <v>339</v>
+      </c>
+      <c r="E69" t="s">
+        <v>430</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70">
+        <v>395</v>
+      </c>
+      <c r="D70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" t="s">
+        <v>430</v>
+      </c>
+      <c r="F70" t="s">
+        <v>334</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
+      <c r="B71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71">
+        <v>397</v>
+      </c>
+      <c r="D71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E71" t="s">
+        <v>430</v>
+      </c>
+      <c r="F71" t="s">
+        <v>330</v>
+      </c>
+      <c r="G71" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72">
+        <v>397</v>
+      </c>
+      <c r="D72" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" t="s">
+        <v>430</v>
+      </c>
+      <c r="F72" t="s">
+        <v>334</v>
+      </c>
+      <c r="G72" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
+      <c r="B73" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73">
+        <v>398</v>
+      </c>
+      <c r="D73" t="s">
+        <v>347</v>
+      </c>
+      <c r="E73" t="s">
+        <v>430</v>
+      </c>
+      <c r="F73" t="s">
+        <v>330</v>
+      </c>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
+      <c r="B74" t="s">
+        <v>348</v>
+      </c>
+      <c r="C74">
+        <v>398</v>
+      </c>
+      <c r="D74" t="s">
+        <v>349</v>
+      </c>
+      <c r="E74" t="s">
+        <v>430</v>
+      </c>
+      <c r="F74" t="s">
+        <v>334</v>
+      </c>
+      <c r="G74" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
+      <c r="B75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75">
+        <v>334</v>
+      </c>
+      <c r="D75" t="s">
+        <v>351</v>
+      </c>
+      <c r="E75" t="s">
+        <v>430</v>
+      </c>
+      <c r="F75" t="s">
+        <v>330</v>
+      </c>
+      <c r="G75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76">
+        <v>334</v>
+      </c>
+      <c r="D76" t="s">
+        <v>353</v>
+      </c>
+      <c r="E76" t="s">
+        <v>430</v>
+      </c>
+      <c r="F76" t="s">
+        <v>334</v>
+      </c>
+      <c r="G76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>354</v>
+      </c>
+      <c r="C77">
+        <v>335</v>
+      </c>
+      <c r="D77" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" t="s">
+        <v>430</v>
+      </c>
+      <c r="F77" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78">
+        <v>335</v>
+      </c>
+      <c r="D78" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" t="s">
+        <v>430</v>
+      </c>
+      <c r="F78" t="s">
+        <v>334</v>
+      </c>
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>358</v>
+      </c>
+      <c r="C79">
+        <v>336</v>
+      </c>
+      <c r="D79" t="s">
+        <v>359</v>
+      </c>
+      <c r="E79" t="s">
+        <v>430</v>
+      </c>
+      <c r="F79" t="s">
+        <v>330</v>
+      </c>
+      <c r="G79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80">
+        <v>336</v>
+      </c>
+      <c r="D80" t="s">
+        <v>362</v>
+      </c>
+      <c r="E80" t="s">
+        <v>430</v>
+      </c>
+      <c r="F80" t="s">
+        <v>334</v>
+      </c>
+      <c r="G80" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81">
+        <v>337</v>
+      </c>
+      <c r="D81" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" t="s">
+        <v>430</v>
+      </c>
+      <c r="F81" t="s">
+        <v>330</v>
+      </c>
+      <c r="G81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82">
+        <v>337</v>
+      </c>
+      <c r="D82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" t="s">
+        <v>430</v>
+      </c>
+      <c r="F82" t="s">
+        <v>334</v>
+      </c>
+      <c r="G82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83">
+        <v>338</v>
+      </c>
+      <c r="D83" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" t="s">
+        <v>430</v>
+      </c>
+      <c r="F83" t="s">
+        <v>330</v>
+      </c>
+      <c r="G83" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>369</v>
+      </c>
+      <c r="C84">
+        <v>338</v>
+      </c>
+      <c r="D84" t="s">
+        <v>370</v>
+      </c>
+      <c r="E84" t="s">
+        <v>430</v>
+      </c>
+      <c r="F84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>371</v>
+      </c>
+      <c r="C85">
+        <v>339</v>
+      </c>
+      <c r="D85" t="s">
+        <v>372</v>
+      </c>
+      <c r="E85" t="s">
+        <v>430</v>
+      </c>
+      <c r="F85" t="s">
+        <v>330</v>
+      </c>
+      <c r="G85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86">
+        <v>339</v>
+      </c>
+      <c r="D86" t="s">
+        <v>374</v>
+      </c>
+      <c r="E86" t="s">
+        <v>430</v>
+      </c>
+      <c r="F86" t="s">
+        <v>334</v>
+      </c>
+      <c r="G86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87">
+        <v>340</v>
+      </c>
+      <c r="D87" t="s">
+        <v>376</v>
+      </c>
+      <c r="E87" t="s">
+        <v>430</v>
+      </c>
+      <c r="F87" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88">
+        <v>340</v>
+      </c>
+      <c r="D88" t="s">
+        <v>378</v>
+      </c>
+      <c r="E88" t="s">
+        <v>430</v>
+      </c>
+      <c r="F88" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>379</v>
+      </c>
+      <c r="C89">
+        <v>341</v>
+      </c>
+      <c r="D89" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" t="s">
+        <v>430</v>
+      </c>
+      <c r="F89" t="s">
+        <v>330</v>
+      </c>
+      <c r="G89" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>380</v>
+      </c>
+      <c r="C90">
+        <v>341</v>
+      </c>
+      <c r="D90" t="s">
+        <v>341</v>
+      </c>
+      <c r="E90" t="s">
+        <v>430</v>
+      </c>
+      <c r="F90" t="s">
+        <v>334</v>
+      </c>
+      <c r="G90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>381</v>
+      </c>
+      <c r="C91">
+        <v>342</v>
+      </c>
+      <c r="D91" t="s">
+        <v>382</v>
+      </c>
+      <c r="E91" t="s">
+        <v>430</v>
+      </c>
+      <c r="F91" t="s">
+        <v>330</v>
+      </c>
+      <c r="G91" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92">
+        <v>342</v>
+      </c>
+      <c r="D92" t="s">
+        <v>384</v>
+      </c>
+      <c r="E92" t="s">
+        <v>430</v>
+      </c>
+      <c r="F92" t="s">
+        <v>334</v>
+      </c>
+      <c r="G92" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>385</v>
+      </c>
+      <c r="C93">
+        <v>343</v>
+      </c>
+      <c r="D93" t="s">
+        <v>386</v>
+      </c>
+      <c r="E93" t="s">
+        <v>430</v>
+      </c>
+      <c r="F93" t="s">
+        <v>330</v>
+      </c>
+      <c r="G93" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94">
+        <v>343</v>
+      </c>
+      <c r="D94" t="s">
+        <v>388</v>
+      </c>
+      <c r="E94" t="s">
+        <v>430</v>
+      </c>
+      <c r="F94" t="s">
+        <v>389</v>
+      </c>
+      <c r="G94" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>391</v>
+      </c>
+      <c r="C95">
+        <v>344</v>
+      </c>
+      <c r="D95" t="s">
+        <v>392</v>
+      </c>
+      <c r="E95" t="s">
+        <v>430</v>
+      </c>
+      <c r="F95" t="s">
+        <v>330</v>
+      </c>
+      <c r="G95" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C96">
+        <v>344</v>
+      </c>
+      <c r="D96" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" t="s">
+        <v>430</v>
+      </c>
+      <c r="F96" t="s">
+        <v>334</v>
+      </c>
+      <c r="G96" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97">
+        <v>345</v>
+      </c>
+      <c r="D97" t="s">
+        <v>343</v>
+      </c>
+      <c r="E97" t="s">
+        <v>430</v>
+      </c>
+      <c r="F97" t="s">
+        <v>330</v>
+      </c>
+      <c r="G97" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98">
+        <v>345</v>
+      </c>
+      <c r="D98" t="s">
+        <v>396</v>
+      </c>
+      <c r="E98" t="s">
+        <v>430</v>
+      </c>
+      <c r="F98" t="s">
+        <v>334</v>
+      </c>
+      <c r="G98" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99">
+        <v>346</v>
+      </c>
+      <c r="D99" t="s">
+        <v>398</v>
+      </c>
+      <c r="E99" t="s">
+        <v>430</v>
+      </c>
+      <c r="F99" t="s">
+        <v>330</v>
+      </c>
+      <c r="G99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100">
+        <v>346</v>
+      </c>
+      <c r="D100" t="s">
+        <v>400</v>
+      </c>
+      <c r="E100" t="s">
+        <v>430</v>
+      </c>
+      <c r="F100" t="s">
+        <v>334</v>
+      </c>
+      <c r="G100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101">
+        <v>347</v>
+      </c>
+      <c r="D101" t="s">
+        <v>402</v>
+      </c>
+      <c r="E101" t="s">
+        <v>430</v>
+      </c>
+      <c r="F101" t="s">
+        <v>330</v>
+      </c>
+      <c r="G101" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102">
+        <v>347</v>
+      </c>
+      <c r="D102" t="s">
+        <v>405</v>
+      </c>
+      <c r="E102" t="s">
+        <v>430</v>
+      </c>
+      <c r="F102" t="s">
+        <v>334</v>
+      </c>
+      <c r="G102" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103">
+        <v>348</v>
+      </c>
+      <c r="D103" t="s">
+        <v>407</v>
+      </c>
+      <c r="E103" t="s">
+        <v>430</v>
+      </c>
+      <c r="F103" t="s">
+        <v>330</v>
+      </c>
+      <c r="G103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>408</v>
+      </c>
+      <c r="C104">
+        <v>348</v>
+      </c>
+      <c r="D104" t="s">
+        <v>409</v>
+      </c>
+      <c r="E104" t="s">
+        <v>430</v>
+      </c>
+      <c r="F104" t="s">
+        <v>334</v>
+      </c>
+      <c r="G104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>410</v>
+      </c>
+      <c r="C105">
+        <v>349</v>
+      </c>
+      <c r="D105" t="s">
+        <v>411</v>
+      </c>
+      <c r="E105" t="s">
+        <v>430</v>
+      </c>
+      <c r="F105" t="s">
+        <v>330</v>
+      </c>
+      <c r="G105" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>412</v>
+      </c>
+      <c r="C106">
+        <v>349</v>
+      </c>
+      <c r="D106" t="s">
+        <v>413</v>
+      </c>
+      <c r="E106" t="s">
+        <v>430</v>
+      </c>
+      <c r="F106" t="s">
+        <v>334</v>
+      </c>
+      <c r="G106" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107">
+        <v>350</v>
+      </c>
+      <c r="D107" t="s">
+        <v>415</v>
+      </c>
+      <c r="E107" t="s">
+        <v>430</v>
+      </c>
+      <c r="F107" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>416</v>
+      </c>
+      <c r="C108">
+        <v>350</v>
+      </c>
+      <c r="D108" t="s">
+        <v>417</v>
+      </c>
+      <c r="E108" t="s">
+        <v>430</v>
+      </c>
+      <c r="F108" t="s">
+        <v>389</v>
+      </c>
+      <c r="G108" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>418</v>
+      </c>
+      <c r="C109">
+        <v>343</v>
+      </c>
+      <c r="D109" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" t="s">
+        <v>430</v>
+      </c>
+      <c r="F109" t="s">
+        <v>389</v>
+      </c>
+      <c r="G109" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>420</v>
+      </c>
+      <c r="C110">
+        <v>343</v>
+      </c>
+      <c r="D110" t="s">
+        <v>421</v>
+      </c>
+      <c r="E110" t="s">
+        <v>430</v>
+      </c>
+      <c r="F110" t="s">
+        <v>389</v>
+      </c>
+      <c r="G110" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>422</v>
+      </c>
+      <c r="C111">
+        <v>354</v>
+      </c>
+      <c r="D111" t="s">
+        <v>423</v>
+      </c>
+      <c r="E111" t="s">
+        <v>430</v>
+      </c>
+      <c r="F111" t="s">
+        <v>330</v>
+      </c>
+      <c r="G111" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>425</v>
+      </c>
+      <c r="C112">
+        <v>354</v>
+      </c>
+      <c r="D112" t="s">
+        <v>426</v>
+      </c>
+      <c r="E112" t="s">
+        <v>430</v>
+      </c>
+      <c r="F112" t="s">
+        <v>334</v>
+      </c>
+      <c r="G112" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>427</v>
+      </c>
+      <c r="C113">
+        <v>356</v>
+      </c>
+      <c r="D113" t="s">
+        <v>428</v>
+      </c>
+      <c r="E113" t="s">
+        <v>430</v>
+      </c>
+      <c r="F113" t="s">
+        <v>330</v>
+      </c>
+      <c r="G113" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>329</v>
+      </c>
+      <c r="C114">
+        <v>356</v>
+      </c>
+      <c r="D114" t="s">
+        <v>429</v>
+      </c>
+      <c r="E114" t="s">
+        <v>431</v>
+      </c>
+      <c r="F114" t="s">
+        <v>334</v>
+      </c>
+      <c r="G114" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
